--- a/tables/crosstab/crosstab_app_safety/interested VS monitoring.xlsx
+++ b/tables/crosstab/crosstab_app_safety/interested VS monitoring.xlsx
@@ -426,22 +426,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E2">
-        <v>29.58</v>
+        <v>29.25</v>
       </c>
       <c r="F2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>36.19</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E3">
-        <v>14.67</v>
+        <v>14.5</v>
       </c>
       <c r="F3">
-        <v>49.14</v>
+        <v>49.75</v>
       </c>
       <c r="G3">
-        <v>63.81</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,19 +472,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D4">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>44.25</v>
+        <v>43.75</v>
       </c>
       <c r="F4">
-        <v>55.75</v>
+        <v>56.25</v>
       </c>
       <c r="G4">
         <v>100</v>
